--- a/画面項目定義/admin1画面項目定義.xlsx
+++ b/画面項目定義/admin1画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{631D911B-B78C-460D-9350-7B21CB0BDD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DC084-E380-4237-987E-F69E2AFE8387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="14123" xr2:uid="{EFA292F7-66D2-4F41-BA2C-984EE2A19ECA}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{EFA292F7-66D2-4F41-BA2C-984EE2A19ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -590,7 +590,7 @@
     <col min="6" max="6" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -630,7 +630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.9">
+    <row r="3" spans="1:6" ht="35.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="70.5">
+    <row r="4" spans="1:6" ht="35.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="88.15">
+    <row r="5" spans="1:6" ht="35.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="70.5">
+    <row r="7" spans="1:6" ht="35.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -730,7 +730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="96">
+    <row r="8" spans="1:6" ht="35.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
